--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt10a-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt10a-Fzd1.xlsx
@@ -546,10 +546,10 @@
         <v>0.035943</v>
       </c>
       <c r="I2">
-        <v>0.05171089204633738</v>
+        <v>0.08983953209358128</v>
       </c>
       <c r="J2">
-        <v>0.05171089204633738</v>
+        <v>0.0898395320935813</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.269979666666667</v>
+        <v>0.794582</v>
       </c>
       <c r="N2">
-        <v>3.809939</v>
+        <v>2.383746</v>
       </c>
       <c r="O2">
-        <v>0.05093337778110387</v>
+        <v>0.03449752952410986</v>
       </c>
       <c r="P2">
-        <v>0.05093337778110387</v>
+        <v>0.03449752952410985</v>
       </c>
       <c r="Q2">
-        <v>0.01521562638633333</v>
+        <v>0.009519886942000001</v>
       </c>
       <c r="R2">
-        <v>0.136940637477</v>
+        <v>0.085678982478</v>
       </c>
       <c r="S2">
-        <v>0.002633810399993981</v>
+        <v>0.003099241910830536</v>
       </c>
       <c r="T2">
-        <v>0.002633810399993981</v>
+        <v>0.003099241910830535</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.035943</v>
       </c>
       <c r="I3">
-        <v>0.05171089204633738</v>
+        <v>0.08983953209358128</v>
       </c>
       <c r="J3">
-        <v>0.05171089204633738</v>
+        <v>0.0898395320935813</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>61.812468</v>
       </c>
       <c r="O3">
-        <v>0.8263433572627786</v>
+        <v>0.8945489325574519</v>
       </c>
       <c r="P3">
-        <v>0.8263433572627789</v>
+        <v>0.8945489325574517</v>
       </c>
       <c r="Q3">
         <v>0.246858393036</v>
@@ -638,10 +638,10 @@
         <v>2.221725537324</v>
       </c>
       <c r="S3">
-        <v>0.04273095214062355</v>
+        <v>0.08036585753577408</v>
       </c>
       <c r="T3">
-        <v>0.04273095214062356</v>
+        <v>0.08036585753577408</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.035943</v>
       </c>
       <c r="I4">
-        <v>0.05171089204633738</v>
+        <v>0.08983953209358128</v>
       </c>
       <c r="J4">
-        <v>0.05171089204633738</v>
+        <v>0.0898395320935813</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6519523333333334</v>
+        <v>0.2871986666666667</v>
       </c>
       <c r="N4">
-        <v>1.955857</v>
+        <v>0.8615959999999999</v>
       </c>
       <c r="O4">
-        <v>0.02614698121592405</v>
+        <v>0.01246900191876775</v>
       </c>
       <c r="P4">
-        <v>0.02614698121592406</v>
+        <v>0.01246900191876775</v>
       </c>
       <c r="Q4">
-        <v>0.007811040905666668</v>
+        <v>0.003440927225333333</v>
       </c>
       <c r="R4">
-        <v>0.07029936815100001</v>
+        <v>0.030968345028</v>
       </c>
       <c r="S4">
-        <v>0.00135208372299426</v>
+        <v>0.001120209298056062</v>
       </c>
       <c r="T4">
-        <v>0.00135208372299426</v>
+        <v>0.001120209298056062</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.035943</v>
       </c>
       <c r="I5">
-        <v>0.05171089204633738</v>
+        <v>0.08983953209358128</v>
       </c>
       <c r="J5">
-        <v>0.05171089204633738</v>
+        <v>0.0898395320935813</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.659922</v>
+        <v>1.149534666666667</v>
       </c>
       <c r="N5">
-        <v>4.979766</v>
+        <v>3.448604</v>
       </c>
       <c r="O5">
-        <v>0.06657227397590787</v>
+        <v>0.04990813547540859</v>
       </c>
       <c r="P5">
-        <v>0.06657227397590788</v>
+        <v>0.04990813547540859</v>
       </c>
       <c r="Q5">
-        <v>0.019887525482</v>
+        <v>0.01377257484133333</v>
       </c>
       <c r="R5">
-        <v>0.178987729338</v>
+        <v>0.123953173572</v>
       </c>
       <c r="S5">
-        <v>0.003442511672847367</v>
+        <v>0.004483723538773773</v>
       </c>
       <c r="T5">
-        <v>0.003442511672847368</v>
+        <v>0.004483723538773773</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.035943</v>
       </c>
       <c r="I6">
-        <v>0.05171089204633738</v>
+        <v>0.08983953209358128</v>
       </c>
       <c r="J6">
-        <v>0.05171089204633738</v>
+        <v>0.0898395320935813</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7481240000000001</v>
+        <v>0.1975403333333333</v>
       </c>
       <c r="N6">
-        <v>2.244372</v>
+        <v>0.5926210000000001</v>
       </c>
       <c r="O6">
-        <v>0.03000400976428538</v>
+        <v>0.008576400524262026</v>
       </c>
       <c r="P6">
-        <v>0.03000400976428538</v>
+        <v>0.008576400524262026</v>
       </c>
       <c r="Q6">
-        <v>0.008963273644000002</v>
+        <v>0.002366730733666667</v>
       </c>
       <c r="R6">
-        <v>0.08066946279600001</v>
+        <v>0.021300576603</v>
       </c>
       <c r="S6">
-        <v>0.001551534109878214</v>
+        <v>0.0007704998101468456</v>
       </c>
       <c r="T6">
-        <v>0.001551534109878214</v>
+        <v>0.0007704998101468457</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.219711</v>
+        <v>0.121379</v>
       </c>
       <c r="H7">
-        <v>0.6591330000000001</v>
+        <v>0.364137</v>
       </c>
       <c r="I7">
-        <v>0.9482891079536626</v>
+        <v>0.9101604679064187</v>
       </c>
       <c r="J7">
-        <v>0.9482891079536627</v>
+        <v>0.9101604679064187</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.269979666666667</v>
+        <v>0.794582</v>
       </c>
       <c r="N7">
-        <v>3.809939</v>
+        <v>2.383746</v>
       </c>
       <c r="O7">
-        <v>0.05093337778110387</v>
+        <v>0.03449752952410986</v>
       </c>
       <c r="P7">
-        <v>0.05093337778110387</v>
+        <v>0.03449752952410985</v>
       </c>
       <c r="Q7">
-        <v>0.279028502543</v>
+        <v>0.096445568578</v>
       </c>
       <c r="R7">
-        <v>2.511256522887</v>
+        <v>0.8680101172019999</v>
       </c>
       <c r="S7">
-        <v>0.04829956738110989</v>
+        <v>0.03139828761327932</v>
       </c>
       <c r="T7">
-        <v>0.0482995673811099</v>
+        <v>0.03139828761327931</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.219711</v>
+        <v>0.121379</v>
       </c>
       <c r="H8">
-        <v>0.6591330000000001</v>
+        <v>0.364137</v>
       </c>
       <c r="I8">
-        <v>0.9482891079536626</v>
+        <v>0.9101604679064187</v>
       </c>
       <c r="J8">
-        <v>0.9482891079536627</v>
+        <v>0.9101604679064187</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>61.812468</v>
       </c>
       <c r="O8">
-        <v>0.8263433572627786</v>
+        <v>0.8945489325574519</v>
       </c>
       <c r="P8">
-        <v>0.8263433572627789</v>
+        <v>0.8945489325574517</v>
       </c>
       <c r="Q8">
-        <v>4.526959718916</v>
+        <v>2.500911851124</v>
       </c>
       <c r="R8">
-        <v>40.74263747024401</v>
+        <v>22.508206660116</v>
       </c>
       <c r="S8">
-        <v>0.7836124051221551</v>
+        <v>0.8141830750216779</v>
       </c>
       <c r="T8">
-        <v>0.7836124051221554</v>
+        <v>0.8141830750216776</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.219711</v>
+        <v>0.121379</v>
       </c>
       <c r="H9">
-        <v>0.6591330000000001</v>
+        <v>0.364137</v>
       </c>
       <c r="I9">
-        <v>0.9482891079536626</v>
+        <v>0.9101604679064187</v>
       </c>
       <c r="J9">
-        <v>0.9482891079536627</v>
+        <v>0.9101604679064187</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6519523333333334</v>
+        <v>0.2871986666666667</v>
       </c>
       <c r="N9">
-        <v>1.955857</v>
+        <v>0.8615959999999999</v>
       </c>
       <c r="O9">
-        <v>0.02614698121592405</v>
+        <v>0.01246900191876775</v>
       </c>
       <c r="P9">
-        <v>0.02614698121592406</v>
+        <v>0.01246900191876775</v>
       </c>
       <c r="Q9">
-        <v>0.143241099109</v>
+        <v>0.03485988696133333</v>
       </c>
       <c r="R9">
-        <v>1.289169891981</v>
+        <v>0.313738982652</v>
       </c>
       <c r="S9">
-        <v>0.02479489749292979</v>
+        <v>0.01134879262071169</v>
       </c>
       <c r="T9">
-        <v>0.0247948974929298</v>
+        <v>0.01134879262071169</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.219711</v>
+        <v>0.121379</v>
       </c>
       <c r="H10">
-        <v>0.6591330000000001</v>
+        <v>0.364137</v>
       </c>
       <c r="I10">
-        <v>0.9482891079536626</v>
+        <v>0.9101604679064187</v>
       </c>
       <c r="J10">
-        <v>0.9482891079536627</v>
+        <v>0.9101604679064187</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.659922</v>
+        <v>1.149534666666667</v>
       </c>
       <c r="N10">
-        <v>4.979766</v>
+        <v>3.448604</v>
       </c>
       <c r="O10">
-        <v>0.06657227397590787</v>
+        <v>0.04990813547540859</v>
       </c>
       <c r="P10">
-        <v>0.06657227397590788</v>
+        <v>0.04990813547540859</v>
       </c>
       <c r="Q10">
-        <v>0.364703122542</v>
+        <v>0.1395293683053333</v>
       </c>
       <c r="R10">
-        <v>3.282328102878</v>
+        <v>1.255764314748</v>
       </c>
       <c r="S10">
-        <v>0.0631297623030605</v>
+        <v>0.04542441193663482</v>
       </c>
       <c r="T10">
-        <v>0.06312976230306053</v>
+        <v>0.04542441193663482</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.219711</v>
+        <v>0.121379</v>
       </c>
       <c r="H11">
-        <v>0.6591330000000001</v>
+        <v>0.364137</v>
       </c>
       <c r="I11">
-        <v>0.9482891079536626</v>
+        <v>0.9101604679064187</v>
       </c>
       <c r="J11">
-        <v>0.9482891079536627</v>
+        <v>0.9101604679064187</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7481240000000001</v>
+        <v>0.1975403333333333</v>
       </c>
       <c r="N11">
-        <v>2.244372</v>
+        <v>0.5926210000000001</v>
       </c>
       <c r="O11">
-        <v>0.03000400976428538</v>
+        <v>0.008576400524262026</v>
       </c>
       <c r="P11">
-        <v>0.03000400976428538</v>
+        <v>0.008576400524262026</v>
       </c>
       <c r="Q11">
-        <v>0.164371072164</v>
+        <v>0.02397724811966667</v>
       </c>
       <c r="R11">
-        <v>1.479339649476</v>
+        <v>0.215795233077</v>
       </c>
       <c r="S11">
-        <v>0.02845247565440716</v>
+        <v>0.00780590071411518</v>
       </c>
       <c r="T11">
-        <v>0.02845247565440717</v>
+        <v>0.00780590071411518</v>
       </c>
     </row>
   </sheetData>
